--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO.xlsx
@@ -14411,28 +14411,28 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -14456,16 +14456,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14494,24 +14494,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14577,28 +14577,28 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2104090001</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
+          <t>GURAMI SURTIDO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0</v>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -14622,19 +14622,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14643,12 +14643,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14660,24 +14660,16 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BETTA HELLBOY MACHO</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -14704,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -14713,19 +14705,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>60</v>
+        <v>613.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14734,12 +14726,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14751,24 +14743,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
+          <t>ESTURION (CITES CZ18737749)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14787,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -14796,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -14817,7 +14809,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14834,28 +14826,28 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>PLECOSTOMUS ORO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -14870,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -14879,19 +14871,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>20</v>
+        <v>613.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -14900,12 +14892,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14917,16 +14909,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>PANGASIUS SUTCHI</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -14962,19 +14962,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>553.33</v>
+        <v>60</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -14983,12 +14983,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -15000,24 +15000,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+          <t>KILLI GARDNERI</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -15045,19 +15045,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15066,12 +15066,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15083,28 +15083,28 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -15128,19 +15128,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -15149,12 +15149,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15166,36 +15166,28 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>0</v>
@@ -15210,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -15219,16 +15211,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>613.33</v>
+        <v>276.67</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -15240,12 +15232,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15257,12 +15249,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>OSCAR SURTIDO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15293,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -15302,16 +15294,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>30</v>
@@ -15323,12 +15315,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15340,24 +15332,32 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>FANTAIL SURTIDO</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15376,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15423,12 +15423,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
+          <t>POPONDETA PASKAI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15474,13 +15474,13 @@
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -15489,12 +15489,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15506,12 +15506,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -15551,16 +15551,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>613.33</v>
+        <v>553.33</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15589,24 +15589,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>BOTIA CARA CABALLO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -15634,19 +15634,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>246.67</v>
+        <v>40</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -15655,12 +15655,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15672,12 +15672,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>2707120008</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>HYPANCISTRUS L66 3-4</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -15717,16 +15717,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>506.67</v>
+        <v>180</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15755,28 +15755,28 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
+          <t>LABEO ZORRO VOLADOR</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
@@ -15809,7 +15809,7 @@
         <v>9</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>0</v>
@@ -15921,28 +15921,28 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>0</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -15966,19 +15966,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>96.67</v>
+        <v>573.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -15987,12 +15987,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -16004,24 +16004,32 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16040,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -16049,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -16070,7 +16078,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16087,24 +16095,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16123,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -16132,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -16153,7 +16161,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16170,12 +16178,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -16206,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -16215,16 +16223,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>160</v>
+        <v>506.67</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>30</v>
@@ -16241,7 +16249,7 @@
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16253,12 +16261,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
+          <t>BETTA MACHO LONG TAIL</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -16289,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -16298,16 +16306,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>613.33</v>
+        <v>313.33</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>30</v>
@@ -16319,12 +16327,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16336,12 +16344,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>PEZ MARIPOSA PANTODON</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -16372,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -16381,19 +16389,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16402,12 +16410,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16419,32 +16427,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>10I12</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LABEO ALBINO</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -16472,16 +16472,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>273.33</v>
+        <v>506.67</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16510,24 +16510,16 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TELESCOPIO ROJO 6-7CM</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
           <t>2708</t>
@@ -16554,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -16563,16 +16555,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>613.33</v>
+        <v>246.67</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -16584,12 +16576,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16601,12 +16593,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16637,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -16646,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -16667,7 +16659,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16684,12 +16676,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>APISTOGRAMA BORELLI</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -16720,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -16729,16 +16721,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>313.33</v>
+        <v>613.33</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>30</v>
@@ -16750,12 +16742,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16767,12 +16759,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>LORICARIA FILAMENTOSA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16818,13 +16810,13 @@
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -16833,12 +16825,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16850,12 +16842,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2104090001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
+          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16933,12 +16925,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16969,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -16978,16 +16970,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>573.33</v>
+        <v>613.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -16999,12 +16991,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17016,12 +17008,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17052,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -17061,16 +17053,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>273.33</v>
+        <v>180</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>30</v>
@@ -17087,7 +17079,7 @@
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17099,24 +17091,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
+          <t>RANCHU SURTIDO 5-6</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17135,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -17144,19 +17136,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
@@ -17165,12 +17157,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17182,12 +17174,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -17218,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -17227,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -17248,7 +17240,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17265,24 +17257,32 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -17310,19 +17310,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>40</v>
+        <v>273.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17331,12 +17331,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17348,28 +17348,28 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H37" s="4" t="n">
         <v>0</v>
@@ -17384,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -17393,19 +17393,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>506.67</v>
+        <v>20</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T37" s="8" t="inlineStr">
         <is>
@@ -17414,12 +17414,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17431,12 +17431,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>BARBO SAWBWA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17514,12 +17514,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -17597,12 +17597,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17680,12 +17680,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
+          <t>ANCISTRUS SP ADULTO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -17725,19 +17725,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>60</v>
+        <v>506.67</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17746,12 +17746,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17763,12 +17763,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -17814,10 +17814,10 @@
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -17829,12 +17829,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17846,28 +17846,36 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2805040002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
+          <t>PLANTA ESTANQUE FLOTANTE</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PLANTAS JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>0</v>
@@ -17882,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -17891,19 +17899,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>506.67</v>
+        <v>130</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -17912,12 +17920,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17929,24 +17937,32 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
+          <t>COMETA SURTIDO XL</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>15CM</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17965,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -17974,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -17995,7 +18011,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -18012,32 +18028,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>2805040002</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PLANTA ESTANQUE FLOTANTE</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS JARDIN ACUATICO</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18056,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -18065,19 +18073,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>130</v>
+        <v>96.67</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18086,12 +18094,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18103,12 +18111,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18139,7 +18147,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -18148,16 +18156,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>613.33</v>
+        <v>160</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -18169,12 +18177,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18186,28 +18194,28 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -18222,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -18231,16 +18239,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>276.67</v>
+        <v>273.33</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>30</v>
@@ -18257,7 +18265,7 @@
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18269,12 +18277,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707120008</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+          <t>HYPANCISTRUS L66 3-4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -18305,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -18314,16 +18322,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>180</v>
+        <v>506.67</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>30</v>
@@ -18340,7 +18348,7 @@
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18352,24 +18360,16 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
           <t>2806</t>
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -18405,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
